--- a/dashboard_loader/indigenous_child_mortality_uploader/indigenous_child_mortality.xlsx
+++ b/dashboard_loader/indigenous_child_mortality_uploader/indigenous_child_mortality.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" state="visible" r:id="rId2"/>
@@ -397,15 +397,13 @@
   </sheetPr>
   <dimension ref="A1:C95"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A61" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C32" activeCellId="0" sqref="C32"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A55" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C79" activeCellId="0" sqref="C79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.2448979591837"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.9744897959184"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1471,9 +1469,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.8826530612245"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.6581632653061"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1702,15 +1698,13 @@
   </sheetPr>
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="89.3622448979592"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="88.4183673469388"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/dashboard_loader/indigenous_child_mortality_uploader/indigenous_child_mortality.xlsx
+++ b/dashboard_loader/indigenous_child_mortality_uploader/indigenous_child_mortality.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="42">
   <si>
     <t xml:space="preserve">Child mortality rates by Indigenous status: NSW, Qld, WA, SA and the NT, 1998 to 2018</t>
   </si>
@@ -126,18 +126,12 @@
     <t xml:space="preserve">This target is not on track this year. The 2015 Indigenous child mortality rate was slightly outside the range required for this target to be on track. Over the long-term (1998 to 2015), the Indigenous child mortality rate declined significantly (by 33 per cent). There was also a significant narrowing (31 per cent) of the child mortality gap. In the short-term, the decline in Indigenous child mortality rates between 2008 and 2015 was not statistically significant.</t>
   </si>
   <si>
-    <t xml:space="preserve">State and territory child mortality rates by Indigenous status for the period 2011 to 2015 show there is some variation by geography. New South Wales had the smallest Indigenous child mortality rate (111 per 100,000 population) and the smallest gap with non-Indigenous children. The Northern Territory had the highest Indigenous child mortality rate (333 per 100,000) and the largest absolute gap.</t>
+    <t xml:space="preserve">State and territory child mortality rates by Indigenous status for the period 2011 to 2015 show there is some variation by geography. New South Wales had the lowest Indigenous child mortality rate (111 child deaths per 100,000 population) and the smallest gap compared with non-Indigenous children. The Northern Territory had the highest Indigenous child mortality rate (333 child deaths per 100,000 population) and the largest absolute gap.</t>
   </si>
   <si>
     <t xml:space="preserve">Trend analysis for individual jurisdictions is not reliable due to the small number of deaths each year.</t>
   </si>
   <si>
-    <t xml:space="preserve">Influences</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maintaining a positive trend towards lower child mortality requires a continued focus on child and maternal health services and broader socio economic factors.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Notes</t>
   </si>
   <si>
@@ -150,7 +144,10 @@
     <t xml:space="preserve">The time series graph presents mortality trends from 1998 to 2015 (latest data available) and trajectory to the 2018 target year to halve the gap. Indigenous data points from the 2008 baseline to 2015 are plotted against the trajectory to monitor progress. Variability bands represent the range required to meet the target.</t>
   </si>
   <si>
-    <t xml:space="preserve">Due to small numbers the child mortality trajectory is only assessed for the five jurisdictions combined (NSW, Qld, WA, SA and NT). The 2015 result was 4 deaths outside the range of the target and an increase of six deaths since 2014.</t>
+    <t xml:space="preserve">Due to small numbers the child mortality trajectory is only assessed for the five jurisdictions combined (NSW, Qld, WA, SA and NT). The 2015 result was four deaths outside the range of the target and an increase of six deaths since 2014.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sourced from: ABS and AIHW analysis of National Mortality Database.</t>
   </si>
 </sst>
 </file>
@@ -162,7 +159,7 @@
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="0"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -193,6 +190,19 @@
     </font>
     <font>
       <sz val="10"/>
+      <color rgb="FF00000A"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF00000A"/>
+      <name val="Calibri"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FF00000A"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -269,7 +279,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -316,6 +326,14 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -397,13 +415,15 @@
   </sheetPr>
   <dimension ref="A1:C95"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A55" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A55" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C79" activeCellId="0" sqref="C79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.9744897959184"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.7040816326531"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1469,7 +1489,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1698,13 +1720,15 @@
   </sheetPr>
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="88.4183673469388"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.86224489795918"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="87.4744897959184"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1743,18 +1767,18 @@
       <c r="A5" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="11" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="46.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="57.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="8"/>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="11" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="11" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1766,28 +1790,25 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="8" t="s">
+    <row r="9" customFormat="false" ht="102.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="8"/>
+      <c r="B9" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="10" t="s">
+    </row>
+    <row r="10" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="8"/>
-      <c r="B10" s="11" t="s">
+    <row r="11" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="10" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="10" t="s">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="13" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="10" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/dashboard_loader/indigenous_child_mortality_uploader/indigenous_child_mortality.xlsx
+++ b/dashboard_loader/indigenous_child_mortality_uploader/indigenous_child_mortality.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="43">
   <si>
     <t xml:space="preserve">Child mortality rates by Indigenous status: NSW, Qld, WA, SA and the NT, 1998 to 2018</t>
   </si>
@@ -147,7 +147,10 @@
     <t xml:space="preserve">Due to small numbers the child mortality trajectory is only assessed for the five jurisdictions combined (NSW, Qld, WA, SA and NT). The 2015 result was four deaths outside the range of the target and an increase of six deaths since 2014.</t>
   </si>
   <si>
-    <t xml:space="preserve">Sourced from: ABS and AIHW analysis of National Mortality Database.</t>
+    <t xml:space="preserve">Source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABS and AIHW analysis of National Mortality Database.</t>
   </si>
 </sst>
 </file>
@@ -159,7 +162,7 @@
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="0"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="19">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -182,6 +185,87 @@
       <family val="0"/>
     </font>
     <font>
+      <b val="true"/>
+      <sz val="24"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="10"/>
+      <color rgb="FF808080"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF006600"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF996600"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFCC0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -196,20 +280,20 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF00000A"/>
-      <name val="Calibri"/>
-      <family val="1"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FF00000A"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF00000A"/>
+      <name val="Calibri"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -218,17 +302,74 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCCC"/>
+        <bgColor rgb="FFDDDDDD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC0000"/>
+        <bgColor rgb="FF800000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF00000A"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFFFCCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FF808080"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF808080"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF808080"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF808080"/>
+      </bottom>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -254,7 +395,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="36">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -278,13 +419,61 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -300,15 +489,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -316,7 +505,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -324,41 +513,57 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="22">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Heading" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 1" xfId="21" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 2" xfId="22" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Text" xfId="23" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Note" xfId="24" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Footnote" xfId="25" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Status" xfId="26" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Good" xfId="27" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Neutral" xfId="28" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Bad" xfId="29" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Warning" xfId="30" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Error" xfId="31" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent" xfId="32" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 1" xfId="33" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 2" xfId="34" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 3" xfId="35" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FFCC0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF006600"/>
       <rgbColor rgb="FF00000A"/>
-      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF996600"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFC0C0C0"/>
@@ -370,7 +575,7 @@
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FFDDDDDD"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -386,7 +591,7 @@
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FFFFCCCC"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
@@ -415,15 +620,15 @@
   </sheetPr>
   <dimension ref="A1:C95"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A55" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A55" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C79" activeCellId="0" sqref="C79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.7040816326531"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.50510204081633"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.51"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1483,15 +1688,15 @@
   </sheetPr>
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.50510204081633"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="8.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="8.51"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1720,15 +1925,15 @@
   </sheetPr>
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.86224489795918"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="87.4744897959184"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.50510204081633"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="87.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.51"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1782,33 +1987,36 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="12" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="102.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="141.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="8"/>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="13" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="10" t="s">
+    <row r="10" customFormat="false" ht="52.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="12" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="10" t="s">
+    <row r="11" customFormat="false" ht="39.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="12" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="13" t="s">
+      <c r="A12" s="0" t="s">
         <v>41</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
